--- a/maket.xlsx
+++ b/maket.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12165"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="14520" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Налоги на совокупный доход</t>
+  </si>
+  <si>
+    <t>в 2020 году за соответс-твующий период</t>
+  </si>
+  <si>
+    <t>в 2021 году за соответствующий период</t>
   </si>
   <si>
     <t xml:space="preserve">Всего поступило по сч 40101/03100 </t>
@@ -155,7 +161,7 @@
       </rPr>
       <t xml:space="preserve">Поступление доходов в бюджеты бюджетной системы Российской Федерации
 на территории Московской области
-по состоянию на 21 мая 2021 года </t>
+по состоянию на 11 июня 2021 года </t>
     </r>
     <r>
       <rPr>
@@ -171,56 +177,14 @@
     </r>
   </si>
   <si>
-    <t>Справочно:                                                                                                                                                                                                                                              По состоянию на 21.05.2021 общая сумма доходов, перечисленных со счета № 40101/03100 на единые счета бюджетов бюджетной системы  на территории Московской области составляет 851 309,42 млн. руб. Сумма перечисленных доходов в 2021 году увеличилась на 95 788,29 млн. руб. или на 12,68% по отношению к 2020 году за соответствующий период.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">в 2020 году за соответс-твующий период (берем данные из Справки ф. 0531468) Название файла: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>0531468 на 21.05.2020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>в 2021 году за соответствующий период (берем данные из Справки ф. 0531468) Название файла:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>0531468 на 21.05.2021</t>
-    </r>
+    <t>Справочно:                                                                                                                                                                                                                                              По состоянию на 11.06.2021 общая сумма доходов, перечисленных со счета № 40101/03100 на единые счета бюджетов бюджетной системы  на территории Московской области составляет 974 592,84 млн. руб. Сумма перечисленных доходов в 2021 году увеличилась на 113 996,25 млн. руб. или на 13,25% по отношению к 2020 году за соответствующий период.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -241,21 +205,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -485,180 +434,150 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -972,7 +891,7 @@
   </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C34" sqref="C34:C38"/>
     </sheetView>
   </sheetViews>
@@ -990,68 +909,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="74"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="A3" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="78" t="s">
+      <c r="D4" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1065,12 +984,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
+        <v>40</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="8" t="e">
         <f t="shared" ref="D6:D14" si="0">C6/B6*100-100</f>
         <v>#DIV/0!</v>
@@ -1087,12 +1006,12 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" s="30" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="71"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1109,12 +1028,12 @@
       <c r="H7" s="28"/>
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1134,12 +1053,12 @@
       <c r="H8" s="15"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1156,12 +1075,12 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" s="30" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="30" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="66"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1181,12 +1100,12 @@
       </c>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="1:9" s="30" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="30" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1200,12 +1119,12 @@
       <c r="H11" s="26"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9" s="30" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="30" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="67"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1219,12 +1138,12 @@
       <c r="H12" s="26"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" s="30" customFormat="1" ht="234" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="30" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1238,12 +1157,12 @@
       <c r="H13" s="26"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1270,7 +1189,7 @@
       <c r="A15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="58"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
@@ -1279,12 +1198,12 @@
       <c r="H15" s="38"/>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="1:9" s="30" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="30" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="25" t="e">
         <f t="shared" ref="D16:D23" si="2">C16/B16*100-100</f>
         <v>#DIV/0!</v>
@@ -1301,12 +1220,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1320,12 +1239,12 @@
       <c r="H17" s="36"/>
       <c r="I17" s="26"/>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="30" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="35" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1339,12 +1258,12 @@
       <c r="H18" s="36"/>
       <c r="I18" s="26"/>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="30" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="25" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1361,12 +1280,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="30" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="35" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1380,12 +1299,12 @@
       <c r="H20" s="36"/>
       <c r="I20" s="26"/>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="30" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="35" t="e">
         <f>C21/B21*100-100</f>
         <v>#DIV/0!</v>
@@ -1399,12 +1318,12 @@
       <c r="H21" s="36"/>
       <c r="I21" s="26"/>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="35" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1418,12 +1337,12 @@
       <c r="H22" s="36"/>
       <c r="I22" s="26"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1444,7 +1363,7 @@
       <c r="A24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -1453,12 +1372,12 @@
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="35" t="e">
         <f t="shared" ref="D25:D31" si="4">C25/B25*100-100</f>
         <v>#DIV/0!</v>
@@ -1472,12 +1391,12 @@
       <c r="H25" s="41"/>
       <c r="I25" s="36"/>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="30" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="35" t="e">
         <f>C26/B26*100-100</f>
         <v>#DIV/0!</v>
@@ -1491,12 +1410,12 @@
       <c r="H26" s="38"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="30" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1510,12 +1429,12 @@
       <c r="H27" s="41"/>
       <c r="I27" s="36"/>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="30" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1529,12 +1448,12 @@
       <c r="H28" s="38"/>
       <c r="I28" s="33"/>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="30" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1551,12 +1470,12 @@
       <c r="H29" s="46"/>
       <c r="I29" s="47"/>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="30" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1573,12 +1492,12 @@
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
     </row>
-    <row r="31" spans="1:9" s="30" customFormat="1" ht="288.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="30" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -1612,24 +1531,24 @@
       <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
-    </row>
-    <row r="34" spans="1:9" s="30" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="67"/>
+    </row>
+    <row r="34" spans="1:9" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="45" t="e">
         <f>C34/B34*100-100</f>
         <v>#DIV/0!</v>
@@ -1646,15 +1565,14 @@
       <c r="H34" s="55"/>
       <c r="I34" s="55"/>
     </row>
-    <row r="35" spans="1:9" s="30" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="45" t="e">
-        <f>C35/B35*100-100</f>
-        <v>#DIV/0!</v>
+      <c r="B35" s="61"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="45">
+        <v>94.82</v>
       </c>
       <c r="E35" s="48">
         <f>C35-B35</f>
@@ -1668,12 +1586,12 @@
       <c r="H35" s="54"/>
       <c r="I35" s="54"/>
     </row>
-    <row r="36" spans="1:9" s="30" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="30" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="45" t="e">
         <f>C36/B36*100-100</f>
         <v>#DIV/0!</v>
@@ -1690,15 +1608,14 @@
       <c r="H36" s="54"/>
       <c r="I36" s="54"/>
     </row>
-    <row r="37" spans="1:9" s="30" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="30" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="45" t="e">
-        <f>C37/B37*100-100</f>
-        <v>#DIV/0!</v>
+      <c r="B37" s="61"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="45">
+        <v>600.9</v>
       </c>
       <c r="E37" s="48">
         <f>C37-B37</f>
@@ -1712,15 +1629,14 @@
       <c r="H37" s="54"/>
       <c r="I37" s="54"/>
     </row>
-    <row r="38" spans="1:9" s="30" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="45" t="e">
-        <f>C38/B38*100-100</f>
-        <v>#DIV/0!</v>
+      <c r="B38" s="61"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="45">
+        <v>-230.77</v>
       </c>
       <c r="E38" s="48">
         <f>C38-B38</f>
@@ -1730,9 +1646,9 @@
         <f>C38/C34*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E41" s="2"/>
@@ -1768,7 +1684,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/maket.xlsx
+++ b/maket.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ПО ДОХОДЫ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UFK\Documents\GitHub\dohody_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -161,7 +161,7 @@
       </rPr>
       <t xml:space="preserve">Поступление доходов в бюджеты бюджетной системы Российской Федерации
 на территории Московской области
-по состоянию на 11 июня 2021 года </t>
+по состоянию на  года </t>
     </r>
     <r>
       <rPr>
@@ -177,7 +177,7 @@
     </r>
   </si>
   <si>
-    <t>Справочно:                                                                                                                                                                                                                                              По состоянию на 11.06.2021 общая сумма доходов, перечисленных со счета № 40101/03100 на единые счета бюджетов бюджетной системы  на территории Московской области составляет 974 592,84 млн. руб. Сумма перечисленных доходов в 2021 году увеличилась на 113 996,25 млн. руб. или на 13,25% по отношению к 2020 году за соответствующий период.</t>
+    <t>Справочно:                                                                                                                                                                                                                                              По состоянию на  общая сумма доходов, перечисленных со счета № 40101/03100 на единые счета бюджетов бюджетной системы  на территории Московской области составляет  млн. руб. Сумма перечисленных доходов в  году увеличилась на  млн. руб. или на  по отношению к  году за соответствующий период.</t>
   </si>
 </sst>
 </file>
@@ -891,8 +891,8 @@
   </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
